--- a/NN.xlsx
+++ b/NN.xlsx
@@ -2946,7 +2946,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>123346.9577733773</v>
+        <v>123991.430341662</v>
       </c>
     </row>
     <row r="4">
@@ -2954,7 +2954,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>121724.5066634335</v>
+        <v>123564.9588726466</v>
       </c>
     </row>
     <row r="5">
@@ -2962,7 +2962,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>124313.9450944745</v>
+        <v>122409.0640760875</v>
       </c>
     </row>
     <row r="6">
@@ -2970,7 +2970,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>122098.2660322075</v>
+        <v>123564.9588726466</v>
       </c>
     </row>
     <row r="7">
@@ -2978,7 +2978,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>121831.5870783555</v>
+        <v>122678.7560069918</v>
       </c>
     </row>
     <row r="8">
@@ -2986,7 +2986,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>121724.5066634335</v>
+        <v>121271.0795317496</v>
       </c>
     </row>
     <row r="9">
@@ -2994,7 +2994,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>123564.9588726466</v>
+        <v>122123.1411701346</v>
       </c>
     </row>
     <row r="10">
@@ -3002,7 +3002,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>122678.7560069918</v>
+        <v>122420.3356758694</v>
       </c>
     </row>
     <row r="11">
@@ -3010,7 +3010,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>120263.0308301467</v>
+        <v>120855.6386255812</v>
       </c>
     </row>
     <row r="12">
@@ -3018,7 +3018,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>121724.5066634335</v>
+        <v>120263.0308301467</v>
       </c>
     </row>
     <row r="13">
@@ -3026,7 +3026,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>121271.0795317496</v>
+        <v>119375.3164016621</v>
       </c>
     </row>
     <row r="14">
@@ -3034,7 +3034,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>122678.7560069918</v>
+        <v>122409.0640760875</v>
       </c>
     </row>
     <row r="15">
@@ -3042,7 +3042,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>121859.4261526023</v>
+        <v>121724.5066634335</v>
       </c>
     </row>
     <row r="16">
@@ -3050,7 +3050,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>119375.3164016621</v>
+        <v>120263.0308301467</v>
       </c>
     </row>
     <row r="17">
@@ -3058,7 +3058,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>120263.0308301467</v>
+        <v>122123.1411701346</v>
       </c>
     </row>
     <row r="18">
@@ -3066,7 +3066,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>121574.5523947833</v>
+        <v>120855.6386255812</v>
       </c>
     </row>
     <row r="19">
@@ -3074,7 +3074,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>119375.3164016621</v>
+        <v>120263.0308301467</v>
       </c>
     </row>
     <row r="20">
@@ -3082,7 +3082,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>122681.331914156</v>
+        <v>121724.5066634335</v>
       </c>
     </row>
     <row r="21">
@@ -3090,7 +3090,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>119375.3164016621</v>
+        <v>121271.0795317496</v>
       </c>
     </row>
     <row r="22">
@@ -3098,7 +3098,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>121271.0795317496</v>
+        <v>119375.3164016621</v>
       </c>
     </row>
     <row r="23">
@@ -3106,7 +3106,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>122050.9618254154</v>
+        <v>120263.0308301467</v>
       </c>
     </row>
     <row r="24">
@@ -3114,7 +3114,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>120263.0308301467</v>
+        <v>119375.3164016621</v>
       </c>
     </row>
     <row r="25">
@@ -3122,7 +3122,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>120855.6386255812</v>
+        <v>121271.0795317496</v>
       </c>
     </row>
     <row r="26">
@@ -3130,7 +3130,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>121859.4261526023</v>
+        <v>120263.0308301467</v>
       </c>
     </row>
     <row r="27">
@@ -3138,7 +3138,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>122098.2660322075</v>
+        <v>120263.0308301467</v>
       </c>
     </row>
     <row r="28">
@@ -3154,7 +3154,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>121574.5523947833</v>
+        <v>120855.6386255812</v>
       </c>
     </row>
     <row r="30">
@@ -3162,7 +3162,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>119375.3164016621</v>
+        <v>120976.995601877</v>
       </c>
     </row>
     <row r="31">
@@ -3170,7 +3170,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>119375.3164016621</v>
+        <v>121271.0795317496</v>
       </c>
     </row>
   </sheetData>
@@ -3206,34 +3206,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="B2" t="n">
-        <v>122681.331914156</v>
+        <v>123137.4752760293</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="B3" t="n">
-        <v>124982.6057605235</v>
+        <v>122430.3552219205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="B4" t="n">
-        <v>124121.2549320876</v>
+        <v>123912.7078892452</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>113</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>123564.9588726466</v>
+        <v>122098.2660322075</v>
       </c>
     </row>
   </sheetData>
@@ -5711,7 +5711,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10871</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="4">
@@ -5719,7 +5719,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>10813</v>
+        <v>10857</v>
       </c>
     </row>
     <row r="5">
@@ -5727,7 +5727,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>11244</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="6">
@@ -5735,7 +5735,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>10837</v>
+        <v>10749</v>
       </c>
     </row>
     <row r="7">
@@ -5759,7 +5759,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>10857</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="10">
@@ -5767,7 +5767,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>10871</v>
+        <v>10749</v>
       </c>
     </row>
     <row r="11">
@@ -5775,7 +5775,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>10892</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="12">
@@ -5783,7 +5783,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10813</v>
+        <v>10749</v>
       </c>
     </row>
     <row r="13">
@@ -5791,7 +5791,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>10871</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="14">
@@ -5799,7 +5799,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>10788</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="15">
@@ -5807,7 +5807,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>10788</v>
+        <v>10749</v>
       </c>
     </row>
     <row r="16">
@@ -5815,7 +5815,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>10749</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="17">
@@ -5823,7 +5823,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>10813</v>
+        <v>10749</v>
       </c>
     </row>
     <row r="18">
@@ -5831,7 +5831,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>10837</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="19">
@@ -5839,7 +5839,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>10749</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="20">
@@ -5847,7 +5847,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>10788</v>
+        <v>10749</v>
       </c>
     </row>
     <row r="21">
@@ -5855,7 +5855,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>10749</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="22">
@@ -5863,7 +5863,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>10788</v>
+        <v>10749</v>
       </c>
     </row>
     <row r="23">
@@ -5887,7 +5887,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>10788</v>
+        <v>10749</v>
       </c>
     </row>
     <row r="26">
@@ -5895,7 +5895,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>10749</v>
+        <v>10813</v>
       </c>
     </row>
     <row r="27">
@@ -5903,7 +5903,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>10813</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="28">
@@ -5919,7 +5919,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>10749</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="30">
@@ -5927,7 +5927,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>10813</v>
+        <v>10749</v>
       </c>
     </row>
     <row r="31">
@@ -5935,7 +5935,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>10813</v>
+        <v>10749</v>
       </c>
     </row>
   </sheetData>
@@ -5971,34 +5971,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B2" t="n">
-        <v>10871</v>
+        <v>11422</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>11092</v>
+        <v>11504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>11050</v>
+        <v>10788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>10813</v>
+        <v>11340</v>
       </c>
     </row>
   </sheetData>
@@ -8522,7 +8522,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>113753.6897199719</v>
+        <v>112605.3266645139</v>
       </c>
     </row>
     <row r="4">
@@ -8530,7 +8530,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>110945.6018521101</v>
+        <v>109401.7590332277</v>
       </c>
     </row>
     <row r="5">
@@ -8538,7 +8538,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>109807.0623811105</v>
+        <v>109562.0476064642</v>
       </c>
     </row>
     <row r="6">
@@ -8554,7 +8554,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>109401.7590332277</v>
+        <v>110185.8861786022</v>
       </c>
     </row>
     <row r="8">
@@ -8578,7 +8578,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>109960.6670903328</v>
+        <v>109562.0476064642</v>
       </c>
     </row>
     <row r="11">
@@ -8586,7 +8586,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>109960.6670903328</v>
+        <v>109589.9010568207</v>
       </c>
     </row>
     <row r="12">
@@ -8594,7 +8594,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>109562.0476064642</v>
+        <v>109997.7441550093</v>
       </c>
     </row>
     <row r="13">
@@ -8602,7 +8602,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>109401.7590332277</v>
+        <v>110185.8861786022</v>
       </c>
     </row>
     <row r="14">
@@ -8610,7 +8610,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>110826.9485186108</v>
+        <v>109562.0476064642</v>
       </c>
     </row>
     <row r="15">
@@ -8618,7 +8618,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>109997.7441550093</v>
+        <v>109401.7590332277</v>
       </c>
     </row>
     <row r="16">
@@ -8626,7 +8626,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>109960.6670903328</v>
+        <v>109589.9010568207</v>
       </c>
     </row>
     <row r="17">
@@ -8634,7 +8634,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>109589.9010568207</v>
+        <v>109807.0623811105</v>
       </c>
     </row>
     <row r="18">
@@ -8642,7 +8642,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>110826.9485186108</v>
+        <v>109589.9010568207</v>
       </c>
     </row>
     <row r="19">
@@ -8650,7 +8650,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>109589.9010568207</v>
+        <v>109818.6145755491</v>
       </c>
     </row>
     <row r="20">
@@ -8658,7 +8658,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>110027.5848670689</v>
+        <v>109589.9010568207</v>
       </c>
     </row>
     <row r="21">
@@ -8666,7 +8666,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>109562.0476064642</v>
+        <v>109749.307605452</v>
       </c>
     </row>
     <row r="22">
@@ -8674,7 +8674,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>109401.7590332277</v>
+        <v>109807.0623811105</v>
       </c>
     </row>
     <row r="23">
@@ -8682,7 +8682,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>109589.9010568207</v>
+        <v>109401.7590332277</v>
       </c>
     </row>
     <row r="24">
@@ -8690,7 +8690,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>109562.0476064642</v>
+        <v>109589.9010568207</v>
       </c>
     </row>
     <row r="25">
@@ -8698,7 +8698,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>109807.0623811105</v>
+        <v>109562.0476064642</v>
       </c>
     </row>
     <row r="26">
@@ -8706,7 +8706,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>109401.7590332277</v>
+        <v>109749.307605452</v>
       </c>
     </row>
     <row r="27">
@@ -8714,7 +8714,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>109562.0476064642</v>
+        <v>109589.9010568207</v>
       </c>
     </row>
     <row r="28">
@@ -8722,7 +8722,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>109401.7590332277</v>
+        <v>109562.0476064642</v>
       </c>
     </row>
     <row r="29">
@@ -8730,7 +8730,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>109401.7590332277</v>
+        <v>109589.9010568207</v>
       </c>
     </row>
     <row r="30">
@@ -8738,7 +8738,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>109401.7590332277</v>
+        <v>109589.9010568207</v>
       </c>
     </row>
     <row r="31">
@@ -8746,7 +8746,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>109749.307605452</v>
+        <v>109562.0476064642</v>
       </c>
     </row>
   </sheetData>
@@ -8782,34 +8782,34 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B2" t="n">
-        <v>113753.6897199719</v>
+        <v>109749.307605452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B3" t="n">
-        <v>111306.8592363632</v>
+        <v>111964.281592707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="B4" t="n">
-        <v>109960.6670903328</v>
+        <v>110648.9638440563</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B5" t="n">
-        <v>113963.4598399639</v>
+        <v>110185.8861786022</v>
       </c>
     </row>
   </sheetData>
